--- a/trial_doses.xlsx
+++ b/trial_doses.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Dropbox/MORU/COVID/Chloroquine Poisoning/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Dropbox/MORU/COVID/Chloroquine Poisoning/Code/Chloroquine-concentration-fatality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AF030C-0576-4446-84BF-7AAAF0B88DD0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07A989F-B406-6F4A-AEB3-C796BD4D40D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="5960" windowWidth="27640" windowHeight="16940" xr2:uid="{6D8CD975-F066-5047-9836-D86529CDD722}"/>
+    <workbookView xWindow="6680" yWindow="3060" windowWidth="34700" windowHeight="16940" xr2:uid="{6D8CD975-F066-5047-9836-D86529CDD722}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1066,11 +1066,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A506A71E-1A0D-6A4E-AB18-AA3485FDFB20}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD55"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="135" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1300,7 +1303,7 @@
         <v>2400</v>
       </c>
       <c r="M6">
-        <f>L6*155/200</f>
+        <f t="shared" ref="M6:M11" si="1">L6*155/200</f>
         <v>1860</v>
       </c>
     </row>
@@ -1339,7 +1342,7 @@
         <v>2400</v>
       </c>
       <c r="M7">
-        <f>L7*155/200</f>
+        <f t="shared" si="1"/>
         <v>1860</v>
       </c>
     </row>
@@ -1379,7 +1382,7 @@
         <v>3200</v>
       </c>
       <c r="M8">
-        <f>L8*155/200</f>
+        <f t="shared" si="1"/>
         <v>2480</v>
       </c>
     </row>
@@ -1418,7 +1421,7 @@
         <v>2400</v>
       </c>
       <c r="M9">
-        <f>L9*155/200</f>
+        <f t="shared" si="1"/>
         <v>1860</v>
       </c>
     </row>
@@ -1457,7 +1460,7 @@
         <v>3200</v>
       </c>
       <c r="M10">
-        <f>L10*155/200</f>
+        <f t="shared" si="1"/>
         <v>2480</v>
       </c>
     </row>
@@ -1496,7 +1499,7 @@
         <v>2400</v>
       </c>
       <c r="M11">
-        <f>L11*155/200</f>
+        <f t="shared" si="1"/>
         <v>1860</v>
       </c>
     </row>
@@ -1648,7 +1651,7 @@
         <v>16800</v>
       </c>
       <c r="M15" s="1">
-        <f t="shared" ref="M15:M22" si="1">L15*155/200</f>
+        <f t="shared" ref="M15:M22" si="2">L15*155/200</f>
         <v>13020</v>
       </c>
     </row>
@@ -1687,7 +1690,7 @@
         <v>2400</v>
       </c>
       <c r="M16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1860</v>
       </c>
     </row>
@@ -1727,7 +1730,7 @@
         <v>4400</v>
       </c>
       <c r="M17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3410</v>
       </c>
     </row>
@@ -1766,7 +1769,7 @@
         <v>3200</v>
       </c>
       <c r="M18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2480</v>
       </c>
     </row>
@@ -1806,7 +1809,7 @@
         <v>2400</v>
       </c>
       <c r="M19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1860</v>
       </c>
     </row>
@@ -1846,7 +1849,7 @@
         <v>2400</v>
       </c>
       <c r="M20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1860</v>
       </c>
     </row>
@@ -1885,7 +1888,7 @@
         <v>8000</v>
       </c>
       <c r="M21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6200</v>
       </c>
     </row>
@@ -1925,7 +1928,7 @@
         <v>2800</v>
       </c>
       <c r="M22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2170</v>
       </c>
     </row>
@@ -2165,7 +2168,7 @@
         <v>4200</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M39" si="2">L28*155/200</f>
+        <f t="shared" ref="M28:M39" si="3">L28*155/200</f>
         <v>3255</v>
       </c>
     </row>
@@ -2204,7 +2207,7 @@
         <v>1600</v>
       </c>
       <c r="M29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1240</v>
       </c>
     </row>
@@ -2244,7 +2247,7 @@
         <v>4400</v>
       </c>
       <c r="M30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3410</v>
       </c>
     </row>
@@ -2284,7 +2287,7 @@
         <v>3000</v>
       </c>
       <c r="M31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2325</v>
       </c>
     </row>
@@ -2327,7 +2330,7 @@
         <v>2400</v>
       </c>
       <c r="M32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1860</v>
       </c>
     </row>
@@ -2367,7 +2370,7 @@
         <v>2400</v>
       </c>
       <c r="M33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1860</v>
       </c>
     </row>
@@ -2407,7 +2410,7 @@
         <v>4200</v>
       </c>
       <c r="M34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3255</v>
       </c>
     </row>
@@ -2447,7 +2450,7 @@
         <v>4400</v>
       </c>
       <c r="M35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3410</v>
       </c>
     </row>
@@ -2487,7 +2490,7 @@
         <v>2400</v>
       </c>
       <c r="M36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1860</v>
       </c>
     </row>
@@ -2527,7 +2530,7 @@
         <v>2400</v>
       </c>
       <c r="M37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1860</v>
       </c>
     </row>
@@ -2567,7 +2570,7 @@
         <v>12000</v>
       </c>
       <c r="M38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9300</v>
       </c>
     </row>
@@ -2607,7 +2610,7 @@
         <v>3400</v>
       </c>
       <c r="M39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2635</v>
       </c>
     </row>
@@ -2716,48 +2719,48 @@
         <v>4000</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42:M51" si="3">L42*155/200</f>
+        <f t="shared" ref="M42:M51" si="4">L42*155/200</f>
         <v>3100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="1">
         <v>400</v>
       </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="1">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1">
         <v>10</v>
       </c>
-      <c r="J43" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43">
-        <f>800*2 + 400+ (400*2*9)</f>
-        <v>9200</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="3"/>
-        <v>7130</v>
+      <c r="J43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="1">
+        <f>800*2 + 400+ (400*2*9) + 400</f>
+        <v>9600</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" si="4"/>
+        <v>7440</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
@@ -2796,7 +2799,7 @@
         <v>2800</v>
       </c>
       <c r="M44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2170</v>
       </c>
     </row>
@@ -2836,7 +2839,7 @@
         <v>6400</v>
       </c>
       <c r="M45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4960</v>
       </c>
     </row>
@@ -2876,7 +2879,7 @@
         <v>2000</v>
       </c>
       <c r="M46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1550</v>
       </c>
     </row>
@@ -2916,7 +2919,7 @@
         <v>4400</v>
       </c>
       <c r="M47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3410</v>
       </c>
     </row>
@@ -2956,7 +2959,7 @@
         <v>8400</v>
       </c>
       <c r="M48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6510</v>
       </c>
     </row>
@@ -2996,7 +2999,7 @@
         <v>2400</v>
       </c>
       <c r="M49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1860</v>
       </c>
     </row>
@@ -3035,7 +3038,7 @@
         <v>6000</v>
       </c>
       <c r="M50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4650</v>
       </c>
     </row>
@@ -3075,7 +3078,7 @@
         <v>2400</v>
       </c>
       <c r="M51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1860</v>
       </c>
     </row>
@@ -3158,7 +3161,7 @@
         <v>5500</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M59" si="4">L53*155/250</f>
+        <f t="shared" ref="M53:M59" si="5">L53*155/250</f>
         <v>3410</v>
       </c>
     </row>
@@ -3198,7 +3201,7 @@
         <v>8000</v>
       </c>
       <c r="M54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4960</v>
       </c>
     </row>
@@ -3238,7 +3241,7 @@
         <v>20000</v>
       </c>
       <c r="M55" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12400</v>
       </c>
     </row>
@@ -3277,7 +3280,7 @@
         <v>7000</v>
       </c>
       <c r="M56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4340</v>
       </c>
     </row>
@@ -3316,7 +3319,7 @@
         <v>5000</v>
       </c>
       <c r="M57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3100</v>
       </c>
     </row>
@@ -3356,7 +3359,7 @@
         <v>4400</v>
       </c>
       <c r="M58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2728</v>
       </c>
     </row>
@@ -3396,7 +3399,7 @@
         <v>3000</v>
       </c>
       <c r="M59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1860</v>
       </c>
     </row>

--- a/trial_doses.xlsx
+++ b/trial_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Dropbox/MORU/COVID/Chloroquine Poisoning/Code/Chloroquine-concentration-fatality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D07A989F-B406-6F4A-AEB3-C796BD4D40D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56758FE-DF19-B545-BF0E-13BB14CF4C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3060" windowWidth="34700" windowHeight="16940" xr2:uid="{6D8CD975-F066-5047-9836-D86529CDD722}"/>
   </bookViews>
@@ -712,10 +712,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -744,14 +752,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1066,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A506A71E-1A0D-6A4E-AB18-AA3485FDFB20}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1196,41 +1207,41 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1">
         <v>800</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>400</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="1">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4">
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="1">
         <v>8800</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <f t="shared" si="0"/>
         <v>6820</v>
       </c>
@@ -2733,7 +2744,7 @@
       <c r="C43" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>162</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -3404,6 +3415,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{FD642A22-E19E-D044-B7CE-87B7241FEE18}"/>
+    <hyperlink ref="D43" r:id="rId2" xr:uid="{79B7193B-E750-8347-BD73-4F5AC47B1EBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/trial_doses.xlsx
+++ b/trial_doses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Dropbox/MORU/COVID/Chloroquine Poisoning/Code/Chloroquine-concentration-fatality/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56758FE-DF19-B545-BF0E-13BB14CF4C4C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD18F74-2D12-764B-924A-BD9CB08C10D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6680" yWindow="3060" windowWidth="34700" windowHeight="16940" xr2:uid="{6D8CD975-F066-5047-9836-D86529CDD722}"/>
   </bookViews>
@@ -1077,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A506A71E-1A0D-6A4E-AB18-AA3485FDFB20}">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1233,17 +1233,17 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="L4" s="1">
-        <v>8800</v>
+        <v>9600</v>
       </c>
       <c r="M4" s="1">
         <f t="shared" si="0"/>
-        <v>6820</v>
+        <v>7440</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">

--- a/trial_doses.xlsx
+++ b/trial_doses.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/James/Dropbox/MORU/COVID/Chloroquine Poisoning/Code/Chloroquine-concentration-fatality/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James Watson\Dropbox\MORU\COVID\Chloroquine Poisoning\Code\Chloroquine-concentration-fatality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD18F74-2D12-764B-924A-BD9CB08C10D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3060" windowWidth="34700" windowHeight="16940" xr2:uid="{6D8CD975-F066-5047-9836-D86529CDD722}"/>
+    <workbookView xWindow="6675" yWindow="3060" windowWidth="34695" windowHeight="16935"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -711,7 +710,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1074,19 +1073,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A506A71E-1A0D-6A4E-AB18-AA3485FDFB20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="135" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1127,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1167,7 +1166,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -1207,7 +1206,7 @@
         <v>6820</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
@@ -1233,7 +1232,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>19</v>
@@ -1246,7 +1245,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1278,7 +1277,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1318,7 +1317,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -1357,7 +1356,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1436,7 +1435,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -1475,7 +1474,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -1546,7 +1545,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>57</v>
       </c>
@@ -1585,7 +1584,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -1625,7 +1624,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>64</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>13020</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
@@ -1705,7 +1704,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1744,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>78</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>82</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>6200</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>88</v>
       </c>
@@ -1943,7 +1942,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -1983,7 +1982,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>96</v>
       </c>
@@ -2023,7 +2022,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2063,7 +2062,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>101</v>
       </c>
@@ -2103,7 +2102,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>104</v>
       </c>
@@ -2143,7 +2142,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>107</v>
       </c>
@@ -2183,7 +2182,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -2262,7 +2261,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>117</v>
       </c>
@@ -2302,7 +2301,7 @@
         <v>2325</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>128</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>132</v>
       </c>
@@ -2465,7 +2464,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -2505,7 +2504,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>139</v>
       </c>
@@ -2545,7 +2544,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -2585,7 +2584,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>145</v>
       </c>
@@ -2625,7 +2624,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -2654,7 +2653,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>152</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -2734,7 +2733,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>159</v>
       </c>
@@ -2774,7 +2773,7 @@
         <v>7440</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>164</v>
       </c>
@@ -2814,7 +2813,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>167</v>
       </c>
@@ -2854,7 +2853,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>171</v>
       </c>
@@ -2894,7 +2893,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -2934,7 +2933,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>6510</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>186</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>4650</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>190</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>3720</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>199</v>
       </c>
@@ -3176,7 +3175,7 @@
         <v>3410</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>203</v>
       </c>
@@ -3216,7 +3215,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>207</v>
       </c>
@@ -3256,7 +3255,7 @@
         <v>12400</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -3295,7 +3294,7 @@
         <v>4340</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3334,7 +3333,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>218</v>
       </c>
@@ -3374,7 +3373,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -3416,8 +3415,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" r:id="rId1" xr:uid="{FD642A22-E19E-D044-B7CE-87B7241FEE18}"/>
-    <hyperlink ref="D43" r:id="rId2" xr:uid="{79B7193B-E750-8347-BD73-4F5AC47B1EBE}"/>
+    <hyperlink ref="D4" r:id="rId1"/>
+    <hyperlink ref="D43" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
